--- a/biology/Médecine/Anévrisme_de_la_veine_de_Galien/Anévrisme_de_la_veine_de_Galien.xlsx
+++ b/biology/Médecine/Anévrisme_de_la_veine_de_Galien/Anévrisme_de_la_veine_de_Galien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_de_la_veine_de_Galien</t>
+          <t>Anévrisme_de_la_veine_de_Galien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anévrisme de la veine de Galien est une maladie rare. La dilatation de la grande veine cérébrale du Galien est un résultat secondaire à la force du sang artériel sur les vaisseaux, soit directement d'une artère par une fistule artério-veineuse ou au moyen d'une veine tributaire qui reçoit le sang directement de l'artère[1]. C'est la plus fréquente des malformations artério-veineuses chez les fœtus et les nourrissons[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anévrisme de la veine de Galien est une maladie rare. La dilatation de la grande veine cérébrale du Galien est un résultat secondaire à la force du sang artériel sur les vaisseaux, soit directement d'une artère par une fistule artério-veineuse ou au moyen d'une veine tributaire qui reçoit le sang directement de l'artère. C'est la plus fréquente des malformations artério-veineuses chez les fœtus et les nourrissons,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_de_la_veine_de_Galien</t>
+          <t>Anévrisme_de_la_veine_de_Galien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une malformation associant des anomalies de la paroi des vaisseaux cérébraux avec des communications anormales entre les artères et les veines, qui est mortelle dans 50 à 90 % des cas[3].
-Cette malformation, plus fréquente chez le garçon, qui est caractérisée par la dilatation d'une veine embryonnaire qui est précurseur de la veine de Galien[4].
-Environ 10% des malformations anévrismales de la veine de Galien sont liées à des mutations du gène EPHB4[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une malformation associant des anomalies de la paroi des vaisseaux cérébraux avec des communications anormales entre les artères et les veines, qui est mortelle dans 50 à 90 % des cas.
+Cette malformation, plus fréquente chez le garçon, qui est caractérisée par la dilatation d'une veine embryonnaire qui est précurseur de la veine de Galien.
+Environ 10% des malformations anévrismales de la veine de Galien sont liées à des mutations du gène EPHB4.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_de_la_veine_de_Galien</t>
+          <t>Anévrisme_de_la_veine_de_Galien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Différentes formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinq formes différentes ont été décrites[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinq formes différentes ont été décrites.
 </t>
         </is>
       </c>
